--- a/medicine/Psychotrope/Bianco_di_Custoza_(DOC)/Bianco_di_Custoza_(DOC).xlsx
+++ b/medicine/Psychotrope/Bianco_di_Custoza_(DOC)/Bianco_di_Custoza_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bianco di Custoza est un vin blanc italien de la région Vénétie doté d'une appellation DOC depuis le 8 février 1971. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Vérone dans les communes Bussolengo, Castelnuovo del Garda, Lazise, Pastrengo, Peschiera del Garda, Sommacampagna, Valeggio sul Mincio et Villafranca di Verona. La superficie de production théorique est de 857 hectares provenant de vignes poussant au bord du lac de Garde. La zone se recoupe avec la zone de production du Bardolino
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille
 odeur : délicat, fleurs fraîches
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,6 +622,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +649,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres :.
 Verona  (1990/91)  82 089,24
